--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBook.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E19E4-BAE6-4FAE-B85C-F64C6F6993B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174524B1-2936-41B2-83AB-0D47B82027A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,11 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-TWD: 新台幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,11 +234,6 @@
   <si>
     <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND BookDate &gt;= ,AND BookDate &lt;=</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 未回收
-1: 已回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>放款約定還本檔</t>
@@ -328,6 +318,16 @@
 PayMethod
 1:減少每期攤還金額
 2:縮短應繳期數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未回收
+1:已回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+TWD:新台幣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -943,7 +943,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="5"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>21</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>35</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
@@ -1111,13 +1111,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
@@ -1130,19 +1130,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>15</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1193,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>45</v>
@@ -1212,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>45</v>
@@ -1231,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>17</v>
@@ -1275,10 +1275,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>45</v>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
@@ -1414,46 +1414,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
